--- a/N_RESULTS.xlsx
+++ b/N_RESULTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\river\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigli\Desktop\SARS_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3233C85E-7D7E-4565-B47B-753A80CB1F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC391A3A-D53E-4FD1-9FC8-267762D9B465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740425E8-833C-4A2D-8054-6EC402593E8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="46">
   <si>
     <t>Gene_name</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>ORGANIZED BY TEST TYPE:</t>
+  </si>
+  <si>
+    <t>2025 GLOBAL</t>
   </si>
 </sst>
 </file>
@@ -684,6 +687,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7601-484C-A8AA-F2A8C57EF8A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$16:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2025 GLOBAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tajimas_D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.6974209999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4448810000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5383300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3465220000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4907620000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.1149680000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.3947780000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9452769999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4289900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4932599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.1707709999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8625-494F-8748-BF2FE2DCF0A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1334,6 +1412,81 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$31:$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2025 GLOBAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$33:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-15.682328999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.694258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.270705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.075062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.5683980000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7753190000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.4064809999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.6127940000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.6391479999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.412694</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.577388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA19-46DA-B99D-33AA1577A2C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1978,6 +2131,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-83AA-4D12-AA1B-EB397BCA8A75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$46:$G$47</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2025 GLOBAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D_star</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$48:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-15.158414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.353611000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.087232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.0372130000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.4530899999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7596430000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.293927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.5924639999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.5621270000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.183926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5593589999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC39-469F-85BF-191147518210}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2628,6 +2856,81 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$61:$G$62</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2025 GLOBAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$63:$G$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.1508240000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.2684759999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.8836550000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.087434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.006265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.778114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.8624799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.262416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.3421770000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.2359859999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.3842689999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79B1-490A-ABB7-6E89D1D2B543}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3272,6 +3575,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E367-4F41-86FA-85CAA12CE414}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$75:$G$76</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2025 GLOBAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F_star</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$77:$G$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.0943729999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.2152950000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.8396429999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0666700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.9683020000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7674829999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.8253820000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.2497179999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.313809</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.1877230000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.3723140000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F129-40EF-8372-8D0D10FE1949}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3919,6 +4297,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-56A0-4B32-9929-F4E49F4940F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$90:$G$91</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2025 GLOBAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fay_Wu_Normalized_H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$92:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.6431000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.183084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.123179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7530999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1127E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.110628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11586399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.144396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14682100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14277699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9149000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE39-49F6-9AC1-8D504FF7658F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4571,6 +5024,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C966-49CC-8333-B4F30A2125AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$105:$G$106</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2025 GLOBAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fay_Wu_Normalized_E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$107:$G$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.480664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.311855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3258760000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0066459999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2314980000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.823531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1663220000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7150369999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2163360000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.3083399999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.835413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C95-4DCC-B479-07416996DE9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8575,16 +9103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>166437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8611,16 +9139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>509751</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>611242</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8647,16 +9175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1362074</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8683,16 +9211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1085849</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>876299</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2095499</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8719,16 +9247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8755,15 +9283,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8791,16 +9319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1019174</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8829,47 +9357,47 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 10">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DDDDDD"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="CC99FF"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="00B050"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F69200"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="7F7F7F"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="418AB3"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="FF0000"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="F59E00"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8975,7 +9503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9117,7 +9645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9125,10 +9653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F89F7A7-6313-44A8-BB4B-CFC3F6B7CE25}">
-  <dimension ref="A1:AO117"/>
+  <dimension ref="A1:AW117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9156,9 +9684,16 @@
     <col min="33" max="33" width="23.42578125" customWidth="1"/>
     <col min="35" max="35" width="19.85546875" customWidth="1"/>
     <col min="41" max="41" width="26.42578125" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" customWidth="1"/>
+    <col min="44" max="44" width="12.5703125" customWidth="1"/>
+    <col min="45" max="45" width="12.85546875" customWidth="1"/>
+    <col min="46" max="46" width="11" customWidth="1"/>
+    <col min="47" max="47" width="13" customWidth="1"/>
+    <col min="48" max="48" width="7.85546875" customWidth="1"/>
+    <col min="49" max="49" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>32</v>
       </c>
@@ -9264,8 +9799,29 @@
       <c r="AO1" t="s">
         <v>35</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9377,8 +9933,29 @@
       <c r="AO2" t="s">
         <v>30</v>
       </c>
+      <c r="AQ2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9490,8 +10067,29 @@
       <c r="AO3">
         <v>-2.6937700000000002</v>
       </c>
+      <c r="AQ3">
+        <v>-2.6974209999999998</v>
+      </c>
+      <c r="AR3">
+        <v>-15.682328999999999</v>
+      </c>
+      <c r="AS3">
+        <v>-15.158414</v>
+      </c>
+      <c r="AT3">
+        <v>-8.1508240000000001</v>
+      </c>
+      <c r="AU3">
+        <v>-8.0943729999999992</v>
+      </c>
+      <c r="AV3">
+        <v>9.6431000000000003E-2</v>
+      </c>
+      <c r="AW3">
+        <v>-2.480664</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9603,8 +10201,29 @@
       <c r="AO4">
         <v>-2.3294000000000001</v>
       </c>
+      <c r="AQ4">
+        <v>-2.4448810000000001</v>
+      </c>
+      <c r="AR4">
+        <v>-12.694258</v>
+      </c>
+      <c r="AS4">
+        <v>-12.353611000000001</v>
+      </c>
+      <c r="AT4">
+        <v>-7.2684759999999997</v>
+      </c>
+      <c r="AU4">
+        <v>-7.2152950000000002</v>
+      </c>
+      <c r="AV4">
+        <v>0.183084</v>
+      </c>
+      <c r="AW4">
+        <v>-2.311855</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9716,8 +10335,29 @@
       <c r="AO5">
         <v>-2.388277</v>
       </c>
+      <c r="AQ5">
+        <v>-2.5383300000000002</v>
+      </c>
+      <c r="AR5">
+        <v>-10.270705</v>
+      </c>
+      <c r="AS5">
+        <v>-10.087232</v>
+      </c>
+      <c r="AT5">
+        <v>-6.8836550000000001</v>
+      </c>
+      <c r="AU5">
+        <v>-6.8396429999999997</v>
+      </c>
+      <c r="AV5">
+        <v>0.123179</v>
+      </c>
+      <c r="AW5">
+        <v>-2.3258760000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -9829,8 +10469,29 @@
       <c r="AO6">
         <v>-1.1672929999999999</v>
       </c>
+      <c r="AQ6">
+        <v>-2.3465220000000002</v>
+      </c>
+      <c r="AR6">
+        <v>-7.075062</v>
+      </c>
+      <c r="AS6">
+        <v>-7.0372130000000004</v>
+      </c>
+      <c r="AT6">
+        <v>-6.087434</v>
+      </c>
+      <c r="AU6">
+        <v>-6.0666700000000002</v>
+      </c>
+      <c r="AV6">
+        <v>5.7530999999999999E-2</v>
+      </c>
+      <c r="AW6">
+        <v>-2.0066459999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -9942,8 +10603,29 @@
       <c r="AO7">
         <v>-2.075129</v>
       </c>
+      <c r="AQ7">
+        <v>-2.4907620000000001</v>
+      </c>
+      <c r="AR7">
+        <v>-9.5683980000000002</v>
+      </c>
+      <c r="AS7">
+        <v>-9.4530899999999995</v>
+      </c>
+      <c r="AT7">
+        <v>-7.006265</v>
+      </c>
+      <c r="AU7">
+        <v>-6.9683020000000004</v>
+      </c>
+      <c r="AV7">
+        <v>9.1127E-2</v>
+      </c>
+      <c r="AW7">
+        <v>-2.2314980000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -10055,8 +10737,29 @@
       <c r="AO8">
         <v>-1.7103520000000001</v>
       </c>
+      <c r="AQ8">
+        <v>-2.1149680000000002</v>
+      </c>
+      <c r="AR8">
+        <v>-3.7753190000000001</v>
+      </c>
+      <c r="AS8">
+        <v>-3.7596430000000001</v>
+      </c>
+      <c r="AT8">
+        <v>-3.778114</v>
+      </c>
+      <c r="AU8">
+        <v>-3.7674829999999999</v>
+      </c>
+      <c r="AV8">
+        <v>0.110628</v>
+      </c>
+      <c r="AW8">
+        <v>-1.823531</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -10168,8 +10871,29 @@
       <c r="AO9">
         <v>-2.0132210000000001</v>
       </c>
+      <c r="AQ9">
+        <v>-2.3947780000000001</v>
+      </c>
+      <c r="AR9">
+        <v>-9.4064809999999994</v>
+      </c>
+      <c r="AS9">
+        <v>-9.293927</v>
+      </c>
+      <c r="AT9">
+        <v>-6.8624799999999997</v>
+      </c>
+      <c r="AU9">
+        <v>-6.8253820000000003</v>
+      </c>
+      <c r="AV9">
+        <v>0.11586399999999999</v>
+      </c>
+      <c r="AW9">
+        <v>-2.1663220000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -10281,8 +11005,29 @@
       <c r="AO10">
         <v>-0.93699500000000002</v>
       </c>
+      <c r="AQ10">
+        <v>-1.9452769999999999</v>
+      </c>
+      <c r="AR10">
+        <v>-4.6127940000000001</v>
+      </c>
+      <c r="AS10">
+        <v>-4.5924639999999997</v>
+      </c>
+      <c r="AT10">
+        <v>-4.262416</v>
+      </c>
+      <c r="AU10">
+        <v>-4.2497179999999997</v>
+      </c>
+      <c r="AV10">
+        <v>0.144396</v>
+      </c>
+      <c r="AW10">
+        <v>-1.7150369999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -10394,8 +11139,29 @@
       <c r="AO11">
         <v>-2.0249380000000001</v>
       </c>
+      <c r="AQ11">
+        <v>-2.4289900000000002</v>
+      </c>
+      <c r="AR11">
+        <v>-6.6391479999999996</v>
+      </c>
+      <c r="AS11">
+        <v>-6.5621270000000003</v>
+      </c>
+      <c r="AT11">
+        <v>-5.3421770000000004</v>
+      </c>
+      <c r="AU11">
+        <v>-5.313809</v>
+      </c>
+      <c r="AV11">
+        <v>0.14682100000000001</v>
+      </c>
+      <c r="AW11">
+        <v>-2.2163360000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -10507,8 +11273,29 @@
       <c r="AO12">
         <v>-2.4131779999999998</v>
       </c>
+      <c r="AQ12">
+        <v>-2.4932599999999998</v>
+      </c>
+      <c r="AR12">
+        <v>-11.412694</v>
+      </c>
+      <c r="AS12">
+        <v>-11.183926</v>
+      </c>
+      <c r="AT12">
+        <v>-7.2359859999999996</v>
+      </c>
+      <c r="AU12">
+        <v>-7.1877230000000001</v>
+      </c>
+      <c r="AV12">
+        <v>0.14277699999999999</v>
+      </c>
+      <c r="AW12">
+        <v>-2.3083399999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -10620,13 +11407,34 @@
       <c r="AO13">
         <v>-1.2762549999999999</v>
       </c>
+      <c r="AQ13">
+        <v>-2.1707709999999998</v>
+      </c>
+      <c r="AR13">
+        <v>-4.577388</v>
+      </c>
+      <c r="AS13">
+        <v>-4.5593589999999997</v>
+      </c>
+      <c r="AT13">
+        <v>-4.3842689999999997</v>
+      </c>
+      <c r="AU13">
+        <v>-4.3723140000000003</v>
+      </c>
+      <c r="AV13">
+        <v>6.9149000000000002E-2</v>
+      </c>
+      <c r="AW13">
+        <v>-1.835413</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -10644,6 +11452,9 @@
       </c>
       <c r="F16" t="s">
         <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -10662,6 +11473,9 @@
       <c r="F17" t="s">
         <v>24</v>
       </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18">
@@ -10679,6 +11493,9 @@
       <c r="F18">
         <v>-2.6658580000000001</v>
       </c>
+      <c r="G18">
+        <v>-2.6974209999999998</v>
+      </c>
       <c r="N18" t="s">
         <v>43</v>
       </c>
@@ -10699,6 +11516,9 @@
       <c r="F19">
         <v>-1.705819</v>
       </c>
+      <c r="G19">
+        <v>-2.4448810000000001</v>
+      </c>
       <c r="N19">
         <f>TTEST(B18:B28,F18:F28,1,3)</f>
         <v>2.2252504197979787E-3</v>
@@ -10720,6 +11540,9 @@
       <c r="F20">
         <v>-2.4588760000000001</v>
       </c>
+      <c r="G20">
+        <v>-2.5383300000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21">
@@ -10737,6 +11560,9 @@
       <c r="F21">
         <v>-1.0082819999999999</v>
       </c>
+      <c r="G21">
+        <v>-2.3465220000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22">
@@ -10754,6 +11580,9 @@
       <c r="F22">
         <v>-1.4759659999999999</v>
       </c>
+      <c r="G22">
+        <v>-2.4907620000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23">
@@ -10771,6 +11600,9 @@
       <c r="F23">
         <v>-1.9370609999999999</v>
       </c>
+      <c r="G23">
+        <v>-2.1149680000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24">
@@ -10788,6 +11620,9 @@
       <c r="F24">
         <v>-2.1885089999999998</v>
       </c>
+      <c r="G24">
+        <v>-2.3947780000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25">
@@ -10805,6 +11640,9 @@
       <c r="F25">
         <v>-0.92160600000000004</v>
       </c>
+      <c r="G25">
+        <v>-1.9452769999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26">
@@ -10822,6 +11660,9 @@
       <c r="F26">
         <v>-2.1588820000000002</v>
       </c>
+      <c r="G26">
+        <v>-2.4289900000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27">
@@ -10839,6 +11680,9 @@
       <c r="F27">
         <v>-2.333272</v>
       </c>
+      <c r="G27">
+        <v>-2.4932599999999998</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28">
@@ -10856,6 +11700,9 @@
       <c r="F28">
         <v>-1.430663</v>
       </c>
+      <c r="G28">
+        <v>-2.1707709999999998</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -10876,6 +11723,9 @@
       <c r="F31" t="s">
         <v>35</v>
       </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -10893,6 +11743,9 @@
       <c r="F32" t="s">
         <v>25</v>
       </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33">
@@ -10910,6 +11763,9 @@
       <c r="F33">
         <v>-11.717993</v>
       </c>
+      <c r="G33">
+        <v>-15.682328999999999</v>
+      </c>
       <c r="N33" t="s">
         <v>43</v>
       </c>
@@ -10930,6 +11786,9 @@
       <c r="F34">
         <v>-7.018726</v>
       </c>
+      <c r="G34">
+        <v>-12.694258</v>
+      </c>
       <c r="N34">
         <f>TTEST(B33:B43,F33:F43,1,3)</f>
         <v>1.1427743992957968E-3</v>
@@ -10951,6 +11810,9 @@
       <c r="F35">
         <v>-7.7511219999999996</v>
       </c>
+      <c r="G35">
+        <v>-10.270705</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36">
@@ -10968,6 +11830,9 @@
       <c r="F36">
         <v>-0.80493199999999998</v>
       </c>
+      <c r="G36">
+        <v>-7.075062</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37">
@@ -10985,6 +11850,9 @@
       <c r="F37">
         <v>-6.7512759999999998</v>
       </c>
+      <c r="G37">
+        <v>-9.5683980000000002</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38">
@@ -11002,6 +11870,9 @@
       <c r="F38">
         <v>-5.4953659999999998</v>
       </c>
+      <c r="G38">
+        <v>-3.7753190000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39">
@@ -11019,6 +11890,9 @@
       <c r="F39">
         <v>-6.9030399999999998</v>
       </c>
+      <c r="G39">
+        <v>-9.4064809999999994</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40">
@@ -11036,6 +11910,9 @@
       <c r="F40">
         <v>-3.6860680000000001</v>
       </c>
+      <c r="G40">
+        <v>-4.6127940000000001</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -11053,6 +11930,9 @@
       <c r="F41">
         <v>-5.9430160000000001</v>
       </c>
+      <c r="G41">
+        <v>-6.6391479999999996</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -11070,6 +11950,9 @@
       <c r="F42">
         <v>-6.5526210000000003</v>
       </c>
+      <c r="G42">
+        <v>-11.412694</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -11087,6 +11970,9 @@
       <c r="F43">
         <v>-4.2225450000000002</v>
       </c>
+      <c r="G43">
+        <v>-4.577388</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11107,6 +11993,9 @@
       <c r="F46" t="s">
         <v>35</v>
       </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -11124,6 +12013,9 @@
       <c r="F47" t="s">
         <v>26</v>
       </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48">
@@ -11141,6 +12033,9 @@
       <c r="F48">
         <v>-10.639525000000001</v>
       </c>
+      <c r="G48">
+        <v>-15.158414</v>
+      </c>
       <c r="N48" t="s">
         <v>43</v>
       </c>
@@ -11161,6 +12056,9 @@
       <c r="F49">
         <v>-7.1349070000000001</v>
       </c>
+      <c r="G49">
+        <v>-12.353611000000001</v>
+      </c>
       <c r="N49">
         <f>TTEST(B48:B58,F48:F58,1,3)</f>
         <v>9.3619899691525354E-4</v>
@@ -11182,6 +12080,9 @@
       <c r="F50">
         <v>-7.3543329999999996</v>
       </c>
+      <c r="G50">
+        <v>-10.087232</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51">
@@ -11199,6 +12100,9 @@
       <c r="F51">
         <v>-0.791489</v>
       </c>
+      <c r="G51">
+        <v>-7.0372130000000004</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52">
@@ -11216,6 +12120,9 @@
       <c r="F52">
         <v>-6.4996660000000004</v>
       </c>
+      <c r="G52">
+        <v>-9.4530899999999995</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53">
@@ -11233,6 +12140,9 @@
       <c r="F53">
         <v>-5.4190529999999999</v>
       </c>
+      <c r="G53">
+        <v>-3.7596430000000001</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54">
@@ -11250,6 +12160,9 @@
       <c r="F54">
         <v>-6.7081540000000004</v>
       </c>
+      <c r="G54">
+        <v>-9.293927</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55">
@@ -11267,6 +12180,9 @@
       <c r="F55">
         <v>-3.653403</v>
       </c>
+      <c r="G55">
+        <v>-4.5924639999999997</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56">
@@ -11284,6 +12200,9 @@
       <c r="F56">
         <v>-5.7545099999999998</v>
       </c>
+      <c r="G56">
+        <v>-6.5621270000000003</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57">
@@ -11301,6 +12220,9 @@
       <c r="F57">
         <v>-6.2008489999999998</v>
       </c>
+      <c r="G57">
+        <v>-11.183926</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58">
@@ -11318,6 +12240,9 @@
       <c r="F58">
         <v>-4.1796689999999996</v>
       </c>
+      <c r="G58">
+        <v>-4.5593589999999997</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -11338,6 +12263,9 @@
       <c r="F61" t="s">
         <v>35</v>
       </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -11355,6 +12283,9 @@
       <c r="F62" t="s">
         <v>27</v>
       </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63">
@@ -11372,6 +12303,9 @@
       <c r="F63">
         <v>-8.1080210000000008</v>
       </c>
+      <c r="G63">
+        <v>-8.1508240000000001</v>
+      </c>
       <c r="N63" t="s">
         <v>43</v>
       </c>
@@ -11392,6 +12326,9 @@
       <c r="F64">
         <v>-5.0944820000000002</v>
       </c>
+      <c r="G64">
+        <v>-7.2684759999999997</v>
+      </c>
       <c r="N64">
         <f>TTEST(B63:B73,F63:F73,1,3)</f>
         <v>2.2540654492455086E-5</v>
@@ -11413,6 +12350,9 @@
       <c r="F65">
         <v>-6.36782</v>
       </c>
+      <c r="G65">
+        <v>-6.8836550000000001</v>
+      </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66">
@@ -11430,6 +12370,9 @@
       <c r="F66">
         <v>-1.0476270000000001</v>
       </c>
+      <c r="G66">
+        <v>-6.087434</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B67">
@@ -11447,6 +12390,9 @@
       <c r="F67">
         <v>-5.3903610000000004</v>
       </c>
+      <c r="G67">
+        <v>-7.006265</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B68">
@@ -11464,6 +12410,9 @@
       <c r="F68">
         <v>-5.0417529999999999</v>
       </c>
+      <c r="G68">
+        <v>-3.778114</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B69">
@@ -11481,6 +12430,9 @@
       <c r="F69">
         <v>-6.0004400000000002</v>
       </c>
+      <c r="G69">
+        <v>-6.8624799999999997</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B70">
@@ -11498,6 +12450,9 @@
       <c r="F70">
         <v>-3.2700140000000002</v>
       </c>
+      <c r="G70">
+        <v>-4.262416</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B71">
@@ -11515,6 +12470,9 @@
       <c r="F71">
         <v>-5.2623049999999996</v>
       </c>
+      <c r="G71">
+        <v>-5.3421770000000004</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B72">
@@ -11532,6 +12490,9 @@
       <c r="F72">
         <v>-5.4987300000000001</v>
       </c>
+      <c r="G72">
+        <v>-7.2359859999999996</v>
+      </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73">
@@ -11549,6 +12510,9 @@
       <c r="F73">
         <v>-3.885132</v>
       </c>
+      <c r="G73">
+        <v>-4.3842689999999997</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -11569,6 +12533,9 @@
       <c r="F75" t="s">
         <v>35</v>
       </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
@@ -11586,6 +12553,9 @@
       <c r="F76" t="s">
         <v>28</v>
       </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B77">
@@ -11603,6 +12573,9 @@
       <c r="F77">
         <v>-7.7706270000000002</v>
       </c>
+      <c r="G77">
+        <v>-8.0943729999999992</v>
+      </c>
       <c r="N77" t="s">
         <v>43</v>
       </c>
@@ -11623,6 +12596,9 @@
       <c r="F78">
         <v>-5.2977230000000004</v>
       </c>
+      <c r="G78">
+        <v>-7.2152950000000002</v>
+      </c>
       <c r="N78">
         <f>TTEST(B77:B87,F77:F87,1,3)</f>
         <v>1.3519525775803672E-5</v>
@@ -11644,6 +12620,9 @@
       <c r="F79">
         <v>-6.1722380000000001</v>
       </c>
+      <c r="G79">
+        <v>-6.8396429999999997</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80">
@@ -11661,6 +12640,9 @@
       <c r="F80">
         <v>-1.0353300000000001</v>
       </c>
+      <c r="G80">
+        <v>-6.0666700000000002</v>
+      </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81">
@@ -11678,6 +12660,9 @@
       <c r="F81">
         <v>-5.253959</v>
       </c>
+      <c r="G81">
+        <v>-6.9683020000000004</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B82">
@@ -11695,6 +12680,9 @@
       <c r="F82">
         <v>-4.9827810000000001</v>
       </c>
+      <c r="G82">
+        <v>-3.7674829999999999</v>
+      </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83">
@@ -11712,6 +12700,9 @@
       <c r="F83">
         <v>-5.877491</v>
       </c>
+      <c r="G83">
+        <v>-6.8253820000000003</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84">
@@ -11729,6 +12720,9 @@
       <c r="F84">
         <v>-3.2429190000000001</v>
       </c>
+      <c r="G84">
+        <v>-4.2497179999999997</v>
+      </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85">
@@ -11746,6 +12740,9 @@
       <c r="F85">
         <v>-5.1452580000000001</v>
       </c>
+      <c r="G85">
+        <v>-5.313809</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86">
@@ -11763,6 +12760,9 @@
       <c r="F86">
         <v>-5.3248519999999999</v>
       </c>
+      <c r="G86">
+        <v>-7.1877230000000001</v>
+      </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B87">
@@ -11780,6 +12780,9 @@
       <c r="F87">
         <v>-3.8499310000000002</v>
       </c>
+      <c r="G87">
+        <v>-4.3723140000000003</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -11800,6 +12803,9 @@
       <c r="F90" t="s">
         <v>35</v>
       </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
@@ -11817,6 +12823,9 @@
       <c r="F91" t="s">
         <v>29</v>
       </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B92">
@@ -11834,6 +12843,9 @@
       <c r="F92">
         <v>0.30992900000000001</v>
       </c>
+      <c r="G92">
+        <v>9.6431000000000003E-2</v>
+      </c>
       <c r="N92" t="s">
         <v>43</v>
       </c>
@@ -11854,6 +12866,9 @@
       <c r="F93">
         <v>0.92777100000000001</v>
       </c>
+      <c r="G93">
+        <v>0.183084</v>
+      </c>
       <c r="N93">
         <f>TTEST(B92:B102,F92:F102,1,3)</f>
         <v>2.2224250491457989E-4</v>
@@ -11875,6 +12890,9 @@
       <c r="F94">
         <v>0.290931</v>
       </c>
+      <c r="G94">
+        <v>0.123179</v>
+      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95">
@@ -11892,6 +12910,9 @@
       <c r="F95">
         <v>0.52515800000000001</v>
       </c>
+      <c r="G95">
+        <v>5.7530999999999999E-2</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96">
@@ -11909,6 +12930,9 @@
       <c r="F96">
         <v>1.008019</v>
       </c>
+      <c r="G96">
+        <v>9.1127E-2</v>
+      </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B97">
@@ -11926,6 +12950,9 @@
       <c r="F97">
         <v>0.26221299999999997</v>
       </c>
+      <c r="G97">
+        <v>0.110628</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B98">
@@ -11943,6 +12970,9 @@
       <c r="F98">
         <v>0.24646399999999999</v>
       </c>
+      <c r="G98">
+        <v>0.11586399999999999</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B99">
@@ -11960,6 +12990,9 @@
       <c r="F99">
         <v>0.33024399999999998</v>
       </c>
+      <c r="G99">
+        <v>0.144396</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B100">
@@ -11977,6 +13010,9 @@
       <c r="F100">
         <v>0.26816699999999999</v>
       </c>
+      <c r="G100">
+        <v>0.14682100000000001</v>
+      </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B101">
@@ -11994,6 +13030,9 @@
       <c r="F101">
         <v>0.44336100000000001</v>
       </c>
+      <c r="G101">
+        <v>0.14277699999999999</v>
+      </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B102">
@@ -12011,6 +13050,9 @@
       <c r="F102">
         <v>0.25311299999999998</v>
       </c>
+      <c r="G102">
+        <v>6.9149000000000002E-2</v>
+      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -12031,6 +13073,9 @@
       <c r="F105" t="s">
         <v>35</v>
       </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
@@ -12048,6 +13093,9 @@
       <c r="F106" t="s">
         <v>30</v>
       </c>
+      <c r="G106" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107">
@@ -12065,6 +13113,9 @@
       <c r="F107">
         <v>-2.6937700000000002</v>
       </c>
+      <c r="G107">
+        <v>-2.480664</v>
+      </c>
       <c r="N107" t="s">
         <v>43</v>
       </c>
@@ -12085,6 +13136,9 @@
       <c r="F108">
         <v>-2.3294000000000001</v>
       </c>
+      <c r="G108">
+        <v>-2.311855</v>
+      </c>
       <c r="N108">
         <f>TTEST(B107:B117,F107:F117,1,3)</f>
         <v>9.6089257011485865E-2</v>
@@ -12106,6 +13160,9 @@
       <c r="F109">
         <v>-2.388277</v>
       </c>
+      <c r="G109">
+        <v>-2.3258760000000001</v>
+      </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B110">
@@ -12123,6 +13180,9 @@
       <c r="F110">
         <v>-1.1672929999999999</v>
       </c>
+      <c r="G110">
+        <v>-2.0066459999999999</v>
+      </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B111">
@@ -12140,6 +13200,9 @@
       <c r="F111">
         <v>-2.075129</v>
       </c>
+      <c r="G111">
+        <v>-2.2314980000000002</v>
+      </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112">
@@ -12157,8 +13220,11 @@
       <c r="F112">
         <v>-1.7103520000000001</v>
       </c>
+      <c r="G112">
+        <v>-1.823531</v>
+      </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>-2.195935</v>
       </c>
@@ -12174,8 +13240,11 @@
       <c r="F113">
         <v>-2.0132210000000001</v>
       </c>
+      <c r="G113">
+        <v>-2.1663220000000001</v>
+      </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>-1.833866</v>
       </c>
@@ -12191,8 +13260,11 @@
       <c r="F114">
         <v>-0.93699500000000002</v>
       </c>
+      <c r="G114">
+        <v>-1.7150369999999999</v>
+      </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>-2.1924000000000001</v>
       </c>
@@ -12208,8 +13280,11 @@
       <c r="F115">
         <v>-2.0249380000000001</v>
       </c>
+      <c r="G115">
+        <v>-2.2163360000000001</v>
+      </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>-2.3315169999999998</v>
       </c>
@@ -12225,8 +13300,11 @@
       <c r="F116">
         <v>-2.4131779999999998</v>
       </c>
+      <c r="G116">
+        <v>-2.3083399999999998</v>
+      </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>-1.936601</v>
       </c>
@@ -12241,6 +13319,9 @@
       </c>
       <c r="F117">
         <v>-1.2762549999999999</v>
+      </c>
+      <c r="G117">
+        <v>-1.835413</v>
       </c>
     </row>
   </sheetData>
